--- a/Document/App order.xlsx
+++ b/Document/App order.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Nội dung các chức năng dự định</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -580,15 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -596,31 +590,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +954,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="22">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -967,7 +973,7 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -985,7 +991,7 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
         <v>1</v>
@@ -1003,7 +1009,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1022,7 +1028,7 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1040,7 +1046,7 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1058,7 +1064,7 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="8"/>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -1076,7 +1082,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1095,7 +1101,7 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1113,7 +1119,7 @@
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -1131,7 +1137,7 @@
       <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -1149,7 +1155,7 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
         <v>4</v>
@@ -1218,7 +1224,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B5" sqref="B5:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,312 +1235,320 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="23" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="D5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="33">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="22" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+      <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="22" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="22" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21">
+      <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="22" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="22" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
+      <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="22" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="18">
         <v>24</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
+      <c r="D27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="33">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Document/App order.xlsx
+++ b/Document/App order.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Nội dung các chức năng dự định</t>
   </si>
@@ -593,6 +593,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,9 +628,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +954,7 @@
       <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -973,7 +973,7 @@
       <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="7"/>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -991,7 +991,7 @@
       <c r="N7" s="17"/>
     </row>
     <row r="8" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="8"/>
       <c r="C8" s="14" t="s">
         <v>1</v>
@@ -1009,7 +1009,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1028,7 +1028,7 @@
       <c r="N9" s="17"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -1046,7 +1046,7 @@
       <c r="N10" s="17"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1064,7 +1064,7 @@
       <c r="N11" s="17"/>
     </row>
     <row r="12" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8"/>
       <c r="C12" s="14" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
+      <c r="A13" s="23">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1101,7 +1101,7 @@
       <c r="N13" s="17"/>
     </row>
     <row r="14" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>14</v>
@@ -1119,7 +1119,7 @@
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>2</v>
@@ -1137,7 +1137,7 @@
       <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="7"/>
       <c r="C16" s="4" t="s">
         <v>3</v>
@@ -1155,7 +1155,7 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="8"/>
       <c r="C17" s="14" t="s">
         <v>4</v>
@@ -1224,7 +1224,7 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,22 +1235,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
@@ -1266,14 +1266,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="19"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -1282,7 +1284,7 @@
       <c r="D5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="22">
         <v>0.8</v>
       </c>
     </row>
@@ -1290,18 +1292,22 @@
       <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="19" t="s">
         <v>19</v>
       </c>
@@ -1312,7 +1318,7 @@
       <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
@@ -1323,7 +1329,7 @@
       <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1340,7 @@
       <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
@@ -1345,7 +1351,7 @@
       <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="19" t="s">
         <v>29</v>
       </c>
@@ -1356,20 +1362,22 @@
       <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="22">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="19" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1388,7 @@
       <c r="A14" s="18">
         <v>11</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="19" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1399,7 @@
       <c r="A15" s="18">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
@@ -1402,7 +1410,7 @@
       <c r="A16" s="18">
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="19" t="s">
         <v>30</v>
       </c>
@@ -1413,7 +1421,7 @@
       <c r="A17" s="18">
         <v>14</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -1426,7 +1434,7 @@
       <c r="A18" s="18">
         <v>15</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="19" t="s">
         <v>18</v>
       </c>
@@ -1437,7 +1445,7 @@
       <c r="A19" s="18">
         <v>16</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="19" t="s">
         <v>19</v>
       </c>
@@ -1448,7 +1456,7 @@
       <c r="A20" s="18">
         <v>17</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
@@ -1459,7 +1467,7 @@
       <c r="A21" s="18">
         <v>18</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="19" t="s">
         <v>31</v>
       </c>
@@ -1470,7 +1478,7 @@
       <c r="A22" s="18">
         <v>19</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="19" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1489,7 @@
       <c r="A23" s="18">
         <v>20</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -1494,7 +1502,7 @@
       <c r="A24" s="18">
         <v>21</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1505,7 +1513,7 @@
       <c r="A25" s="18">
         <v>22</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
@@ -1516,7 +1524,7 @@
       <c r="A26" s="18">
         <v>23</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="19" t="s">
         <v>20</v>
       </c>
@@ -1536,7 +1544,7 @@
       <c r="D27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="22">
         <v>1</v>
       </c>
     </row>
